--- a/config_debug/sys_txz_config.xlsx
+++ b/config_debug/sys_txz_config.xlsx
@@ -154,7 +154,7 @@
     <t>使用1次红包大转盘</t>
   </si>
   <si>
-    <t>actp_own_task_txz</t>
+    <t>p_txz</t>
   </si>
   <si>
     <t>深海探险通过10层</t>
@@ -192,10 +192,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -232,7 +232,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,13 +283,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -269,9 +355,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -281,99 +374,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -396,25 +396,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,13 +552,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,139 +576,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,15 +587,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -610,6 +601,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,23 +647,28 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -676,17 +687,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -695,145 +695,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -859,7 +859,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1406,7 +1406,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>

--- a/config_debug/sys_txz_config.xlsx
+++ b/config_debug/sys_txz_config.xlsx
@@ -154,7 +154,7 @@
     <t>使用1次红包大转盘</t>
   </si>
   <si>
-    <t>p_txz</t>
+    <t>actp_own_task_p_txz</t>
   </si>
   <si>
     <t>深海探险通过10层</t>
@@ -192,10 +192,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -232,7 +232,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,6 +274,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -253,10 +282,65 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -268,78 +352,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -360,20 +374,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -396,187 +396,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,26 +605,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -647,8 +634,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -657,18 +644,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -695,10 +695,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -707,133 +707,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1406,7 +1406,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>

--- a/config_debug/sys_txz_config.xlsx
+++ b/config_debug/sys_txz_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name=" shopIDs" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -112,6 +112,9 @@
     <t>task_name</t>
   </si>
   <si>
+    <t>condi_key</t>
+  </si>
+  <si>
     <t>登录游戏1次</t>
   </si>
   <si>
@@ -149,6 +152,9 @@
   </si>
   <si>
     <t>使用1次红包大转盘</t>
+  </si>
+  <si>
+    <t>txz_type_plat2</t>
   </si>
   <si>
     <t>深海探险通过10层</t>
@@ -225,8 +231,137 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,135 +374,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -390,43 +396,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,139 +570,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -584,56 +590,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -657,16 +618,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -681,6 +663,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -689,10 +695,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -701,137 +707,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -852,6 +858,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -1223,7 +1232,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1234,7 +1243,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="9">
         <v>10563</v>
       </c>
       <c r="C2">
@@ -1253,7 +1262,7 @@
   <sheetPr/>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -1394,21 +1403,22 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="3" max="3" width="13.875" customWidth="1"/>
     <col min="4" max="4" width="13.125" customWidth="1"/>
     <col min="5" max="5" width="22.625" customWidth="1"/>
     <col min="6" max="6" width="39.875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -1426,6 +1436,9 @@
       </c>
       <c r="F1" s="2" t="s">
         <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1442,7 +1455,7 @@
         <v>30</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1459,7 +1472,7 @@
         <v>30</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:6">
@@ -1476,10 +1489,10 @@
         <v>30</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" ht="15.75" spans="1:6">
@@ -1496,10 +1509,10 @@
         <v>30</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" ht="15.75" spans="1:6">
@@ -1516,10 +1529,10 @@
         <v>30</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" ht="15.75" spans="1:6">
@@ -1536,10 +1549,10 @@
         <v>30</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" ht="15.75" spans="1:6">
@@ -1556,10 +1569,10 @@
         <v>30</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" ht="15.75" spans="1:6">
@@ -1576,10 +1589,10 @@
         <v>30</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1596,10 +1609,10 @@
         <v>100</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" spans="1:6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" spans="1:7">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1613,10 +1626,13 @@
         <v>200</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="12" ht="15.75" spans="1:6">
@@ -1633,10 +1649,10 @@
         <v>200</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1653,7 +1669,7 @@
         <v>200</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" ht="15.75" spans="1:6">
@@ -1670,10 +1686,10 @@
         <v>200</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" ht="15.75" spans="1:6">
@@ -1690,10 +1706,10 @@
         <v>200</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" ht="15.75" spans="1:6">
@@ -1710,10 +1726,10 @@
         <v>200</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>48</v>
+        <v>37</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1743,10 +1759,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1757,7 +1773,7 @@
         <v>30001</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1768,7 +1784,7 @@
         <v>30002</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1779,7 +1795,7 @@
         <v>30003</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/sys_txz_config.xlsx
+++ b/config_debug/sys_txz_config.xlsx
@@ -154,7 +154,7 @@
     <t>使用1次红包大转盘</t>
   </si>
   <si>
-    <t>txz_type_plat2</t>
+    <t>actp_own_task_txz</t>
   </si>
   <si>
     <t>深海探险通过10层</t>
@@ -192,10 +192,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -231,6 +231,42 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -240,16 +276,71 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -262,50 +353,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -321,55 +368,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -396,19 +396,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,163 +576,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -593,8 +593,56 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -610,30 +658,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -663,30 +687,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -695,10 +695,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -707,133 +707,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1406,7 +1406,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -1415,7 +1415,7 @@
     <col min="4" max="4" width="13.125" customWidth="1"/>
     <col min="5" max="5" width="22.625" customWidth="1"/>
     <col min="6" max="6" width="39.875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.875" customWidth="1"/>
+    <col min="7" max="7" width="24.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">

--- a/config_debug/sys_txz_config.xlsx
+++ b/config_debug/sys_txz_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name=" shopIDs" sheetId="1" r:id="rId1"/>
@@ -70,13 +70,13 @@
     <t>"冰冻*3","12万金币","48万金币"</t>
   </si>
   <si>
-    <t>"bygame_icon_dan_bs08","ty_icon_jb_6y","ty_icon_jb_18y"</t>
+    <t>"3dby_btn_js","ty_icon_jb_6y","ty_icon_jb_18y"</t>
   </si>
   <si>
     <t>"快速子弹*5","14万金币","56万金币"</t>
   </si>
   <si>
-    <t>"bygame_icon_cjhl","ty_icon_jb_6y","ty_icon_jb_18y"</t>
+    <t>"3dby_btn_kb","ty_icon_jb_6y","ty_icon_jb_18y"</t>
   </si>
   <si>
     <t>"超级火力*5","16万金币","64万金币"</t>
@@ -193,9 +193,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -232,7 +232,90 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,24 +328,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -282,83 +360,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -367,9 +368,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -396,25 +396,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,157 +576,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,6 +587,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -601,6 +625,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,31 +674,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,21 +687,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -695,145 +695,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1262,8 +1262,8 @@
   <sheetPr/>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1405,7 +1405,7 @@
   <sheetPr/>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>

--- a/config_debug/sys_txz_config.xlsx
+++ b/config_debug/sys_txz_config.xlsx
@@ -73,13 +73,13 @@
     <t>"3dby_btn_js","ty_icon_jb_6y","ty_icon_jb_18y"</t>
   </si>
   <si>
-    <t>"快速子弹*5","14万金币","56万金币"</t>
+    <t>"加速卡*5","14万金币","56万金币"</t>
   </si>
   <si>
     <t>"3dby_btn_kb","ty_icon_jb_6y","ty_icon_jb_18y"</t>
   </si>
   <si>
-    <t>"超级火力*5","16万金币","64万金币"</t>
+    <t>"狂暴卡*5","16万金币","64万金币"</t>
   </si>
   <si>
     <t>"3dby_btn_jb","ty_icon_debjc2","ty_icon_debjc88"</t>
@@ -193,9 +193,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -231,8 +231,39 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,6 +277,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -254,8 +314,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,98 +354,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -369,7 +369,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -396,13 +396,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,169 +552,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,26 +590,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -625,6 +610,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,35 +661,20 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -695,145 +695,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1263,7 +1263,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1406,7 +1406,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>

--- a/config_debug/sys_txz_config.xlsx
+++ b/config_debug/sys_txz_config.xlsx
@@ -49,7 +49,7 @@
     <t>"3dby_btn_jb","ty_icon_jb_6y","ty_icon_jb_15y"</t>
   </si>
   <si>
-    <t>"双倍奖励*2","6万金币","24万金币"</t>
+    <t>"双倍卡*2","6万金币","24万金币"</t>
   </si>
   <si>
     <t>"3dby_btn_sd","ty_icon_jb_6y","ty_icon_jb_15y"</t>
@@ -85,7 +85,7 @@
     <t>"3dby_btn_jb","ty_icon_debjc2","ty_icon_debjc88"</t>
   </si>
   <si>
-    <t>"双倍奖励*5","炮台加成2%","炮台加成8%"</t>
+    <t>"双倍卡*5","炮台加成2%","炮台加成8%"</t>
   </si>
   <si>
     <t>"ty_icon_jb_6y","ty_icon_jb_15y","ty_icon_jb_30y"</t>
@@ -231,6 +231,57 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -240,16 +291,64 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -261,67 +360,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -330,44 +368,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -396,43 +396,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,13 +498,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,7 +540,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,97 +570,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -593,23 +593,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,16 +639,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -663,7 +672,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -678,15 +687,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -695,10 +695,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -707,133 +707,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1263,7 +1263,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1406,7 +1406,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
